--- a/Lab/lab2/homwwork_lab2/Kết quả hoạt động kinh doanh công ty cổ phần sữa Việt Nam.xlsx
+++ b/Lab/lab2/homwwork_lab2/Kết quả hoạt động kinh doanh công ty cổ phần sữa Việt Nam.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\c4e23\Fundamental\Lab\lab2\homwwork_lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA387328-4A9E-4929-A48F-D7F628FED5AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Hạng mục</t>
   </si>
@@ -371,20 +376,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -400,15 +404,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -696,19 +709,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -742,717 +755,374 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s"/>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s"/>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-    </row>
-    <row r="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s"/>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s"/>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s"/>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s"/>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-    </row>
-    <row r="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s"/>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s"/>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-    </row>
-    <row r="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s"/>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s"/>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-    </row>
-    <row r="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s"/>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s"/>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
-    </row>
-    <row r="20">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s"/>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s"/>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
-    </row>
-    <row r="23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s"/>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s"/>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s"/>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
-      <c r="D27" t="s"/>
-      <c r="E27" t="s"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s"/>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
-      <c r="D28" t="s"/>
-      <c r="E28" t="s"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s"/>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s"/>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s"/>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
-      <c r="D33" t="s"/>
-      <c r="E33" t="s"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s"/>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
-      <c r="D34" t="s"/>
-      <c r="E34" t="s"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s"/>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
-      <c r="D36" t="s"/>
-      <c r="E36" t="s"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s"/>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
-      <c r="D37" t="s"/>
-      <c r="E37" t="s"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s"/>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
-      <c r="D39" t="s"/>
-      <c r="E39" t="s"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s"/>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
-      <c r="D40" t="s"/>
-      <c r="E40" t="s"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s"/>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
-      <c r="D42" t="s"/>
-      <c r="E42" t="s"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s"/>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
-      <c r="D43" t="s"/>
-      <c r="E43" t="s"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s"/>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
-      <c r="D45" t="s"/>
-      <c r="E45" t="s"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s"/>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
-      <c r="D46" t="s"/>
-      <c r="E46" t="s"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s"/>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
-      <c r="D48" t="s"/>
-      <c r="E48" t="s"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s"/>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
-      <c r="D49" t="s"/>
-      <c r="E49" t="s"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s"/>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
-      <c r="D51" t="s"/>
-      <c r="E51" t="s"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s"/>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
-      <c r="D52" t="s"/>
-      <c r="E52" t="s"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s"/>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
-      <c r="D54" t="s"/>
-      <c r="E54" t="s"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s"/>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
-      <c r="D55" t="s"/>
-      <c r="E55" t="s"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s"/>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
-      <c r="D57" t="s"/>
-      <c r="E57" t="s"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s"/>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
-      <c r="D58" t="s"/>
-      <c r="E58" t="s"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s"/>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
-      <c r="D60" t="s"/>
-      <c r="E60" t="s"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s"/>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
-      <c r="D61" t="s"/>
-      <c r="E61" t="s"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s"/>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
-      <c r="D63" t="s"/>
-      <c r="E63" t="s"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s"/>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
-      <c r="D64" t="s"/>
-      <c r="E64" t="s"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s"/>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
-      <c r="D66" t="s"/>
-      <c r="E66" t="s"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s"/>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
-      <c r="D67" t="s"/>
-      <c r="E67" t="s"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>115</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
-      <c r="D68" t="s"/>
-      <c r="E68" t="s"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s"/>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
-      <c r="D69" t="s"/>
-      <c r="E69" t="s"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s"/>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
-      <c r="D70" t="s"/>
-      <c r="E70" t="s"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>116</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
-      <c r="D71" t="s"/>
-      <c r="E71" t="s"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s"/>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
-      <c r="D72" t="s"/>
-      <c r="E72" t="s"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s"/>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
-      <c r="D73" t="s"/>
-      <c r="E73" t="s"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lab/lab2/homwwork_lab2/Kết quả hoạt động kinh doanh công ty cổ phần sữa Việt Nam.xlsx
+++ b/Lab/lab2/homwwork_lab2/Kết quả hoạt động kinh doanh công ty cổ phần sữa Việt Nam.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\c4e23\Fundamental\Lab\lab2\homwwork_lab2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA387328-4A9E-4929-A48F-D7F628FED5AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Hạng mục</t>
   </si>
@@ -376,19 +371,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -404,24 +400,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -709,19 +696,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -755,7 +742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -772,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -789,7 +776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -806,7 +793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -823,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -840,7 +827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -857,7 +844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -874,7 +861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -891,7 +878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -908,7 +895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -925,7 +912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -942,7 +929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -959,7 +946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -976,7 +963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -993,7 +980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1010,7 +997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1027,7 +1014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1044,7 +1031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -1061,7 +1048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -1078,7 +1065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1095,7 +1082,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -1112,17 +1099,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>116</v>
       </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>